--- a/Rol Dic.xlsx
+++ b/Rol Dic.xlsx
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE5"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="27.3" customWidth="1" min="1" max="1"/>
+    <col width="74.10000000000001" customWidth="1" min="1" max="1"/>
     <col width="20.8" customWidth="1" min="2" max="2"/>
     <col width="20.8" customWidth="1" min="3" max="3"/>
     <col width="20.8" customWidth="1" min="4" max="4"/>
@@ -703,7 +703,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Bere</t>
+          <t>Cap. 1/o. I.C.E. Jose Luis Revilla Manzur</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
@@ -732,11 +732,7 @@
       <c r="Y2" s="2" t="inlineStr"/>
       <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="inlineStr"/>
-      <c r="AB2" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="AB2" s="2" t="inlineStr"/>
       <c r="AC2" s="2" t="inlineStr"/>
       <c r="AD2" s="2" t="inlineStr"/>
       <c r="AE2" s="2" t="inlineStr"/>
@@ -744,15 +740,15 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Alcantar</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr"/>
+          <t>Cap. 1/o. I.C.E. Jaime Mendoza Soto</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr"/>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
@@ -785,20 +781,20 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Mendoza</t>
+          <t>Cap. 1/o. I.C.E. Carlos Mendoza Sanchez</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr"/>
       <c r="C4" s="2" t="inlineStr"/>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
       <c r="F4" s="2" t="inlineStr"/>
       <c r="G4" s="2" t="inlineStr"/>
-      <c r="H4" s="2" t="inlineStr"/>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
       <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
@@ -826,18 +822,46 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>Charly</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr"/>
-      <c r="C5" s="2" t="inlineStr"/>
-      <c r="D5" s="2" t="inlineStr"/>
-      <c r="E5" s="2" t="inlineStr"/>
-      <c r="F5" s="2" t="inlineStr"/>
-      <c r="G5" s="2" t="inlineStr"/>
+          <t>Tte. Trans. Luis Raymundo de Jesus Mixteco</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr"/>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
       <c r="M5" s="2" t="inlineStr"/>
@@ -850,11 +874,7 @@
       <c r="T5" s="2" t="inlineStr"/>
       <c r="U5" s="2" t="inlineStr"/>
       <c r="V5" s="2" t="inlineStr"/>
-      <c r="W5" s="2" t="inlineStr">
-        <is>
-          <t>C</t>
-        </is>
-      </c>
+      <c r="W5" s="2" t="inlineStr"/>
       <c r="X5" s="2" t="inlineStr"/>
       <c r="Y5" s="2" t="inlineStr"/>
       <c r="Z5" s="2" t="inlineStr"/>
@@ -864,6 +884,133 @@
       <c r="AD5" s="2" t="inlineStr"/>
       <c r="AE5" s="2" t="inlineStr"/>
     </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Tte. Rep. Jose Luis Felix</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr"/>
+      <c r="C6" s="2" t="inlineStr"/>
+      <c r="D6" s="2" t="inlineStr"/>
+      <c r="E6" s="2" t="inlineStr"/>
+      <c r="F6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="inlineStr"/>
+      <c r="H6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr"/>
+      <c r="J6" s="2" t="inlineStr"/>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr"/>
+      <c r="M6" s="2" t="inlineStr"/>
+      <c r="N6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr"/>
+      <c r="Q6" s="2" t="inlineStr"/>
+      <c r="R6" s="2" t="inlineStr"/>
+      <c r="S6" s="2" t="inlineStr"/>
+      <c r="T6" s="2" t="inlineStr"/>
+      <c r="U6" s="2" t="inlineStr"/>
+      <c r="V6" s="2" t="inlineStr"/>
+      <c r="W6" s="2" t="inlineStr"/>
+      <c r="X6" s="2" t="inlineStr"/>
+      <c r="Y6" s="2" t="inlineStr"/>
+      <c r="Z6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="inlineStr"/>
+      <c r="AB6" s="2" t="inlineStr"/>
+      <c r="AC6" s="2" t="inlineStr"/>
+      <c r="AD6" s="2" t="inlineStr"/>
+      <c r="AE6" s="2" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>Cap. 1/o. I.C.E. Fernando Alcantar Hernandez</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="inlineStr"/>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
+      <c r="E7" s="2" t="inlineStr"/>
+      <c r="F7" s="2" t="inlineStr"/>
+      <c r="G7" s="2" t="inlineStr"/>
+      <c r="H7" s="2" t="inlineStr"/>
+      <c r="I7" s="2" t="inlineStr"/>
+      <c r="J7" s="2" t="inlineStr"/>
+      <c r="K7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="inlineStr"/>
+      <c r="M7" s="2" t="inlineStr"/>
+      <c r="N7" s="2" t="inlineStr"/>
+      <c r="O7" s="2" t="inlineStr"/>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr"/>
+      <c r="R7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="inlineStr"/>
+      <c r="T7" s="2" t="inlineStr"/>
+      <c r="U7" s="2" t="inlineStr"/>
+      <c r="V7" s="2" t="inlineStr"/>
+      <c r="W7" s="2" t="inlineStr"/>
+      <c r="X7" s="2" t="inlineStr"/>
+      <c r="Y7" s="2" t="inlineStr"/>
+      <c r="Z7" s="2" t="inlineStr"/>
+      <c r="AA7" s="2" t="inlineStr"/>
+      <c r="AB7" s="2" t="inlineStr"/>
+      <c r="AC7" s="2" t="inlineStr"/>
+      <c r="AD7" s="2" t="inlineStr"/>
+      <c r="AE7" s="2" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Cap. 1/o. I.C.E. Rafael Espinoza Reyes</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr"/>
+      <c r="D8" s="2" t="inlineStr"/>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>CTL</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr"/>
+      <c r="G8" s="2" t="inlineStr"/>
+      <c r="H8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="inlineStr"/>
+      <c r="J8" s="2" t="inlineStr"/>
+      <c r="K8" s="2" t="inlineStr"/>
+      <c r="L8" s="2" t="inlineStr"/>
+      <c r="M8" s="2" t="inlineStr"/>
+      <c r="N8" s="2" t="inlineStr"/>
+      <c r="O8" s="2" t="inlineStr"/>
+      <c r="P8" s="2" t="inlineStr"/>
+      <c r="Q8" s="2" t="inlineStr"/>
+      <c r="R8" s="2" t="inlineStr"/>
+      <c r="S8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="inlineStr"/>
+      <c r="U8" s="2" t="inlineStr"/>
+      <c r="V8" s="2" t="inlineStr"/>
+      <c r="W8" s="2" t="inlineStr"/>
+      <c r="X8" s="2" t="inlineStr"/>
+      <c r="Y8" s="2" t="inlineStr"/>
+      <c r="Z8" s="2" t="inlineStr"/>
+      <c r="AA8" s="2" t="inlineStr"/>
+      <c r="AB8" s="2" t="inlineStr"/>
+      <c r="AC8" s="2" t="inlineStr"/>
+      <c r="AD8" s="2" t="inlineStr"/>
+      <c r="AE8" s="2" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Rol Dic.xlsx
+++ b/Rol Dic.xlsx
@@ -481,36 +481,36 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="74.10000000000001" customWidth="1" min="1" max="1"/>
-    <col width="20.8" customWidth="1" min="2" max="2"/>
+    <col width="18.2" customWidth="1" min="2" max="2"/>
     <col width="20.8" customWidth="1" min="3" max="3"/>
-    <col width="20.8" customWidth="1" min="4" max="4"/>
+    <col width="18.2" customWidth="1" min="4" max="4"/>
     <col width="20.8" customWidth="1" min="5" max="5"/>
-    <col width="20.8" customWidth="1" min="6" max="6"/>
-    <col width="20.8" customWidth="1" min="7" max="7"/>
+    <col width="18.2" customWidth="1" min="6" max="6"/>
+    <col width="18.2" customWidth="1" min="7" max="7"/>
     <col width="20.8" customWidth="1" min="8" max="8"/>
-    <col width="20.8" customWidth="1" min="9" max="9"/>
+    <col width="16.9" customWidth="1" min="9" max="9"/>
     <col width="20.8" customWidth="1" min="10" max="10"/>
     <col width="20.8" customWidth="1" min="11" max="11"/>
-    <col width="20.8" customWidth="1" min="12" max="12"/>
-    <col width="20.8" customWidth="1" min="13" max="13"/>
-    <col width="20.8" customWidth="1" min="14" max="14"/>
-    <col width="20.8" customWidth="1" min="15" max="15"/>
+    <col width="16.9" customWidth="1" min="12" max="12"/>
+    <col width="16.9" customWidth="1" min="13" max="13"/>
+    <col width="16.9" customWidth="1" min="14" max="14"/>
+    <col width="16.9" customWidth="1" min="15" max="15"/>
     <col width="20.8" customWidth="1" min="16" max="16"/>
-    <col width="20.8" customWidth="1" min="17" max="17"/>
-    <col width="20.8" customWidth="1" min="18" max="18"/>
-    <col width="20.8" customWidth="1" min="19" max="19"/>
-    <col width="20.8" customWidth="1" min="20" max="20"/>
-    <col width="20.8" customWidth="1" min="21" max="21"/>
-    <col width="20.8" customWidth="1" min="22" max="22"/>
-    <col width="20.8" customWidth="1" min="23" max="23"/>
-    <col width="20.8" customWidth="1" min="24" max="24"/>
-    <col width="20.8" customWidth="1" min="25" max="25"/>
-    <col width="20.8" customWidth="1" min="26" max="26"/>
-    <col width="20.8" customWidth="1" min="27" max="27"/>
-    <col width="20.8" customWidth="1" min="28" max="28"/>
-    <col width="20.8" customWidth="1" min="29" max="29"/>
-    <col width="20.8" customWidth="1" min="30" max="30"/>
-    <col width="20.8" customWidth="1" min="31" max="31"/>
+    <col width="16.9" customWidth="1" min="17" max="17"/>
+    <col width="16.9" customWidth="1" min="18" max="18"/>
+    <col width="16.9" customWidth="1" min="19" max="19"/>
+    <col width="16.9" customWidth="1" min="20" max="20"/>
+    <col width="16.9" customWidth="1" min="21" max="21"/>
+    <col width="16.9" customWidth="1" min="22" max="22"/>
+    <col width="16.9" customWidth="1" min="23" max="23"/>
+    <col width="16.9" customWidth="1" min="24" max="24"/>
+    <col width="16.9" customWidth="1" min="25" max="25"/>
+    <col width="16.9" customWidth="1" min="26" max="26"/>
+    <col width="16.9" customWidth="1" min="27" max="27"/>
+    <col width="16.9" customWidth="1" min="28" max="28"/>
+    <col width="16.9" customWidth="1" min="29" max="29"/>
+    <col width="16.9" customWidth="1" min="30" max="30"/>
+    <col width="16.9" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -931,7 +931,9 @@
           <t>Cap. 1/o. I.C.E. Fernando Alcantar Hernandez</t>
         </is>
       </c>
-      <c r="B7" s="2" t="inlineStr"/>
+      <c r="B7" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="C7" s="2" t="inlineStr"/>
       <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="2" t="inlineStr"/>

--- a/Rol Dic.xlsx
+++ b/Rol Dic.xlsx
@@ -488,29 +488,29 @@
     <col width="18.2" customWidth="1" min="6" max="6"/>
     <col width="18.2" customWidth="1" min="7" max="7"/>
     <col width="20.8" customWidth="1" min="8" max="8"/>
-    <col width="16.9" customWidth="1" min="9" max="9"/>
+    <col width="18.2" customWidth="1" min="9" max="9"/>
     <col width="20.8" customWidth="1" min="10" max="10"/>
     <col width="20.8" customWidth="1" min="11" max="11"/>
-    <col width="16.9" customWidth="1" min="12" max="12"/>
-    <col width="16.9" customWidth="1" min="13" max="13"/>
-    <col width="16.9" customWidth="1" min="14" max="14"/>
-    <col width="16.9" customWidth="1" min="15" max="15"/>
+    <col width="18.2" customWidth="1" min="12" max="12"/>
+    <col width="18.2" customWidth="1" min="13" max="13"/>
+    <col width="18.2" customWidth="1" min="14" max="14"/>
+    <col width="18.2" customWidth="1" min="15" max="15"/>
     <col width="20.8" customWidth="1" min="16" max="16"/>
-    <col width="16.9" customWidth="1" min="17" max="17"/>
-    <col width="16.9" customWidth="1" min="18" max="18"/>
-    <col width="16.9" customWidth="1" min="19" max="19"/>
-    <col width="16.9" customWidth="1" min="20" max="20"/>
-    <col width="16.9" customWidth="1" min="21" max="21"/>
-    <col width="16.9" customWidth="1" min="22" max="22"/>
-    <col width="16.9" customWidth="1" min="23" max="23"/>
-    <col width="16.9" customWidth="1" min="24" max="24"/>
-    <col width="16.9" customWidth="1" min="25" max="25"/>
-    <col width="16.9" customWidth="1" min="26" max="26"/>
-    <col width="16.9" customWidth="1" min="27" max="27"/>
-    <col width="16.9" customWidth="1" min="28" max="28"/>
-    <col width="16.9" customWidth="1" min="29" max="29"/>
-    <col width="16.9" customWidth="1" min="30" max="30"/>
-    <col width="16.9" customWidth="1" min="31" max="31"/>
+    <col width="18.2" customWidth="1" min="17" max="17"/>
+    <col width="18.2" customWidth="1" min="18" max="18"/>
+    <col width="18.2" customWidth="1" min="19" max="19"/>
+    <col width="18.2" customWidth="1" min="20" max="20"/>
+    <col width="18.2" customWidth="1" min="21" max="21"/>
+    <col width="18.2" customWidth="1" min="22" max="22"/>
+    <col width="18.2" customWidth="1" min="23" max="23"/>
+    <col width="18.2" customWidth="1" min="24" max="24"/>
+    <col width="18.2" customWidth="1" min="25" max="25"/>
+    <col width="18.2" customWidth="1" min="26" max="26"/>
+    <col width="18.2" customWidth="1" min="27" max="27"/>
+    <col width="18.2" customWidth="1" min="28" max="28"/>
+    <col width="18.2" customWidth="1" min="29" max="29"/>
+    <col width="18.2" customWidth="1" min="30" max="30"/>
+    <col width="18.2" customWidth="1" min="31" max="31"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -703,12 +703,14 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Cap. 1/o. I.C.E. Jose Luis Revilla Manzur</t>
+          <t>Cap. 1/o. I.C.E. Berenice Flores Mancilla</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="inlineStr"/>
-      <c r="D2" s="2" t="inlineStr"/>
+      <c r="D2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="2" t="inlineStr"/>
@@ -717,7 +719,9 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="inlineStr"/>
+      <c r="M2" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="N2" s="2" t="inlineStr"/>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
@@ -725,7 +729,9 @@
       <c r="R2" s="2" t="inlineStr"/>
       <c r="S2" s="2" t="inlineStr"/>
       <c r="T2" s="2" t="inlineStr"/>
-      <c r="U2" s="2" t="inlineStr"/>
+      <c r="U2" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="V2" s="2" t="inlineStr"/>
       <c r="W2" s="2" t="inlineStr"/>
       <c r="X2" s="2" t="inlineStr"/>
@@ -733,9 +739,13 @@
       <c r="Z2" s="2" t="inlineStr"/>
       <c r="AA2" s="2" t="inlineStr"/>
       <c r="AB2" s="2" t="inlineStr"/>
-      <c r="AC2" s="2" t="inlineStr"/>
+      <c r="AC2" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="AD2" s="2" t="inlineStr"/>
-      <c r="AE2" s="2" t="inlineStr"/>
+      <c r="AE2" s="2" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
@@ -759,7 +769,9 @@
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
       <c r="M3" s="2" t="inlineStr"/>
-      <c r="N3" s="2" t="inlineStr"/>
+      <c r="N3" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr"/>
       <c r="Q3" s="2" t="inlineStr"/>
@@ -768,9 +780,13 @@
       <c r="T3" s="2" t="inlineStr"/>
       <c r="U3" s="2" t="inlineStr"/>
       <c r="V3" s="2" t="inlineStr"/>
-      <c r="W3" s="2" t="inlineStr"/>
+      <c r="W3" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="X3" s="2" t="inlineStr"/>
-      <c r="Y3" s="2" t="inlineStr"/>
+      <c r="Y3" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="Z3" s="2" t="inlineStr"/>
       <c r="AA3" s="2" t="inlineStr"/>
       <c r="AB3" s="2" t="inlineStr"/>
@@ -788,7 +804,9 @@
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="2" t="inlineStr"/>
-      <c r="F4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr">
         <is>
@@ -803,14 +821,18 @@
       <c r="N4" s="2" t="inlineStr"/>
       <c r="O4" s="2" t="inlineStr"/>
       <c r="P4" s="2" t="inlineStr"/>
-      <c r="Q4" s="2" t="inlineStr"/>
+      <c r="Q4" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="R4" s="2" t="inlineStr"/>
       <c r="S4" s="2" t="inlineStr"/>
       <c r="T4" s="2" t="inlineStr"/>
       <c r="U4" s="2" t="inlineStr"/>
       <c r="V4" s="2" t="inlineStr"/>
       <c r="W4" s="2" t="inlineStr"/>
-      <c r="X4" s="2" t="inlineStr"/>
+      <c r="X4" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="Y4" s="2" t="inlineStr"/>
       <c r="Z4" s="2" t="inlineStr"/>
       <c r="AA4" s="2" t="inlineStr"/>
@@ -869,15 +891,21 @@
       <c r="O5" s="2" t="inlineStr"/>
       <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
+      <c r="R5" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="S5" s="2" t="inlineStr"/>
       <c r="T5" s="2" t="inlineStr"/>
       <c r="U5" s="2" t="inlineStr"/>
-      <c r="V5" s="2" t="inlineStr"/>
+      <c r="V5" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="W5" s="2" t="inlineStr"/>
       <c r="X5" s="2" t="inlineStr"/>
       <c r="Y5" s="2" t="inlineStr"/>
-      <c r="Z5" s="2" t="inlineStr"/>
+      <c r="Z5" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="AA5" s="2" t="inlineStr"/>
       <c r="AB5" s="2" t="inlineStr"/>
       <c r="AC5" s="2" t="inlineStr"/>
@@ -895,7 +923,9 @@
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="2" t="inlineStr"/>
       <c r="F6" s="2" t="inlineStr"/>
-      <c r="G6" s="2" t="inlineStr"/>
+      <c r="G6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr"/>
       <c r="J6" s="2" t="inlineStr"/>
@@ -907,7 +937,9 @@
       <c r="L6" s="2" t="inlineStr"/>
       <c r="M6" s="2" t="inlineStr"/>
       <c r="N6" s="2" t="inlineStr"/>
-      <c r="O6" s="2" t="inlineStr"/>
+      <c r="O6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="P6" s="2" t="inlineStr"/>
       <c r="Q6" s="2" t="inlineStr"/>
       <c r="R6" s="2" t="inlineStr"/>
@@ -919,7 +951,9 @@
       <c r="X6" s="2" t="inlineStr"/>
       <c r="Y6" s="2" t="inlineStr"/>
       <c r="Z6" s="2" t="inlineStr"/>
-      <c r="AA6" s="2" t="inlineStr"/>
+      <c r="AA6" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="AB6" s="2" t="inlineStr"/>
       <c r="AC6" s="2" t="inlineStr"/>
       <c r="AD6" s="2" t="inlineStr"/>
@@ -943,7 +977,9 @@
       <c r="I7" s="2" t="inlineStr"/>
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr"/>
-      <c r="L7" s="2" t="inlineStr"/>
+      <c r="L7" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="M7" s="2" t="inlineStr"/>
       <c r="N7" s="2" t="inlineStr"/>
       <c r="O7" s="2" t="inlineStr"/>
@@ -954,7 +990,9 @@
       </c>
       <c r="Q7" s="2" t="inlineStr"/>
       <c r="R7" s="2" t="inlineStr"/>
-      <c r="S7" s="2" t="inlineStr"/>
+      <c r="S7" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="T7" s="2" t="inlineStr"/>
       <c r="U7" s="2" t="inlineStr"/>
       <c r="V7" s="2" t="inlineStr"/>
@@ -963,7 +1001,9 @@
       <c r="Y7" s="2" t="inlineStr"/>
       <c r="Z7" s="2" t="inlineStr"/>
       <c r="AA7" s="2" t="inlineStr"/>
-      <c r="AB7" s="2" t="inlineStr"/>
+      <c r="AB7" s="2" t="n">
+        <v>3</v>
+      </c>
       <c r="AC7" s="2" t="inlineStr"/>
       <c r="AD7" s="2" t="inlineStr"/>
       <c r="AE7" s="2" t="inlineStr"/>
@@ -989,7 +1029,9 @@
       <c r="F8" s="2" t="inlineStr"/>
       <c r="G8" s="2" t="inlineStr"/>
       <c r="H8" s="2" t="inlineStr"/>
-      <c r="I8" s="2" t="inlineStr"/>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
@@ -1000,7 +1042,9 @@
       <c r="Q8" s="2" t="inlineStr"/>
       <c r="R8" s="2" t="inlineStr"/>
       <c r="S8" s="2" t="inlineStr"/>
-      <c r="T8" s="2" t="inlineStr"/>
+      <c r="T8" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="U8" s="2" t="inlineStr"/>
       <c r="V8" s="2" t="inlineStr"/>
       <c r="W8" s="2" t="inlineStr"/>
@@ -1010,7 +1054,9 @@
       <c r="AA8" s="2" t="inlineStr"/>
       <c r="AB8" s="2" t="inlineStr"/>
       <c r="AC8" s="2" t="inlineStr"/>
-      <c r="AD8" s="2" t="inlineStr"/>
+      <c r="AD8" s="2" t="n">
+        <v>2</v>
+      </c>
       <c r="AE8" s="2" t="inlineStr"/>
     </row>
   </sheetData>
